--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N2">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O2">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P2">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q2">
-        <v>61.87415480034388</v>
+        <v>305.218665521474</v>
       </c>
       <c r="R2">
-        <v>556.8673932030948</v>
+        <v>2746.967989693266</v>
       </c>
       <c r="S2">
-        <v>0.0256986588044261</v>
+        <v>0.03997969509603034</v>
       </c>
       <c r="T2">
-        <v>0.02569865880442611</v>
+        <v>0.03997969509603033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.354819</v>
       </c>
       <c r="O3">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P3">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q3">
-        <v>360.8399784874459</v>
+        <v>530.1040278407971</v>
       </c>
       <c r="R3">
-        <v>3247.559806387012</v>
+        <v>4770.936250567174</v>
       </c>
       <c r="S3">
-        <v>0.1498703864330408</v>
+        <v>0.06943676713232193</v>
       </c>
       <c r="T3">
-        <v>0.1498703864330409</v>
+        <v>0.06943676713232191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N4">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O4">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P4">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q4">
-        <v>56.71314100218866</v>
+        <v>93.91982930643069</v>
       </c>
       <c r="R4">
-        <v>510.4182690196978</v>
+        <v>845.2784637578761</v>
       </c>
       <c r="S4">
-        <v>0.02355509606628928</v>
+        <v>0.01230228214492385</v>
       </c>
       <c r="T4">
-        <v>0.02355509606628929</v>
+        <v>0.01230228214492384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N5">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O5">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P5">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q5">
-        <v>374.2920752601247</v>
+        <v>2367.362316743973</v>
       </c>
       <c r="R5">
-        <v>3368.628677341122</v>
+        <v>21306.26085069575</v>
       </c>
       <c r="S5">
-        <v>0.1554575471188022</v>
+        <v>0.3100938254990079</v>
       </c>
       <c r="T5">
-        <v>0.1554575471188022</v>
+        <v>0.3100938254990079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N6">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O6">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P6">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q6">
-        <v>93.90331726874</v>
+        <v>315.308942828964</v>
       </c>
       <c r="R6">
-        <v>845.1298554186599</v>
+        <v>2837.780485460676</v>
       </c>
       <c r="S6">
-        <v>0.03900157212458134</v>
+        <v>0.04130139083668438</v>
       </c>
       <c r="T6">
-        <v>0.03900157212458136</v>
+        <v>0.04130139083668437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.354819</v>
       </c>
       <c r="O7">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P7">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q7">
         <v>547.6288297187961</v>
@@ -883,10 +883,10 @@
         <v>4928.659467469163</v>
       </c>
       <c r="S7">
-        <v>0.227450807074819</v>
+        <v>0.07173228937537897</v>
       </c>
       <c r="T7">
-        <v>0.227450807074819</v>
+        <v>0.07173228937537897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N8">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O8">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P8">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q8">
-        <v>86.070704157816</v>
+        <v>97.02474138890402</v>
       </c>
       <c r="R8">
-        <v>774.6363374203439</v>
+        <v>873.2226725001361</v>
       </c>
       <c r="S8">
-        <v>0.03574839391900864</v>
+        <v>0.01270898544449165</v>
       </c>
       <c r="T8">
-        <v>0.03574839391900865</v>
+        <v>0.01270898544449164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N9">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O9">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P9">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q9">
-        <v>568.044405741624</v>
+        <v>2445.625362100116</v>
       </c>
       <c r="R9">
-        <v>5112.399651674617</v>
+        <v>22010.62825890104</v>
       </c>
       <c r="S9">
-        <v>0.2359301620526677</v>
+        <v>0.3203452715738393</v>
       </c>
       <c r="T9">
-        <v>0.2359301620526678</v>
+        <v>0.3203452715738393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N10">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O10">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P10">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q10">
-        <v>18.44486025690222</v>
+        <v>85.88150422954101</v>
       </c>
       <c r="R10">
-        <v>166.00374231212</v>
+        <v>772.9335380658689</v>
       </c>
       <c r="S10">
-        <v>0.007660842753601782</v>
+        <v>0.01124936559046688</v>
       </c>
       <c r="T10">
-        <v>0.007660842753601785</v>
+        <v>0.01124936559046687</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.354819</v>
       </c>
       <c r="O11">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P11">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q11">
-        <v>107.5674164726942</v>
+        <v>149.1590667671768</v>
       </c>
       <c r="R11">
-        <v>968.1067482542479</v>
+        <v>1342.431600904591</v>
       </c>
       <c r="S11">
-        <v>0.04467678537711531</v>
+        <v>0.01953790735560568</v>
       </c>
       <c r="T11">
-        <v>0.04467678537711532</v>
+        <v>0.01953790735560568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N12">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O12">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P12">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q12">
-        <v>16.90634747077866</v>
+        <v>26.42687728169267</v>
       </c>
       <c r="R12">
-        <v>152.157127237008</v>
+        <v>237.841895535234</v>
       </c>
       <c r="S12">
-        <v>0.007021840648693571</v>
+        <v>0.003461578911817731</v>
       </c>
       <c r="T12">
-        <v>0.007021840648693573</v>
+        <v>0.00346157891181773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N13">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O13">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P13">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q13">
-        <v>111.5775245046347</v>
+        <v>666.1212428503957</v>
       </c>
       <c r="R13">
-        <v>1004.197720541712</v>
+        <v>5995.09118565356</v>
       </c>
       <c r="S13">
-        <v>0.04634233375372366</v>
+        <v>0.08725326198726178</v>
       </c>
       <c r="T13">
-        <v>0.04634233375372367</v>
+        <v>0.08725326198726176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7633283333333333</v>
+        <v>2.563107</v>
       </c>
       <c r="N14">
-        <v>2.289985</v>
+        <v>7.689321</v>
       </c>
       <c r="O14">
-        <v>0.07247598971834315</v>
+        <v>0.09258576031692413</v>
       </c>
       <c r="P14">
-        <v>0.07247598971834317</v>
+        <v>0.09258576031692412</v>
       </c>
       <c r="Q14">
-        <v>0.2766810765555555</v>
+        <v>0.42224624718</v>
       </c>
       <c r="R14">
-        <v>2.490129688999999</v>
+        <v>3.80021622462</v>
       </c>
       <c r="S14">
-        <v>0.0001149160357339217</v>
+        <v>5.530879374253655E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001149160357339217</v>
+        <v>5.530879374253654E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.354819</v>
       </c>
       <c r="O15">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="P15">
-        <v>0.4226681504613934</v>
+        <v>0.160803024221502</v>
       </c>
       <c r="Q15">
-        <v>1.613558908955556</v>
+        <v>0.7333576273533333</v>
       </c>
       <c r="R15">
-        <v>14.5220301806</v>
+        <v>6.600218646179999</v>
       </c>
       <c r="S15">
-        <v>0.0006701715764182108</v>
+        <v>9.606035819546461E-05</v>
       </c>
       <c r="T15">
-        <v>0.0006701715764182109</v>
+        <v>9.606035819546461E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6996579999999999</v>
+        <v>0.7887020000000001</v>
       </c>
       <c r="N16">
-        <v>2.098974</v>
+        <v>2.366106</v>
       </c>
       <c r="O16">
-        <v>0.06643066135501743</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="P16">
-        <v>0.06643066135501745</v>
+        <v>0.02848986575023154</v>
       </c>
       <c r="Q16">
-        <v>0.2536027030666666</v>
+        <v>0.12993076748</v>
       </c>
       <c r="R16">
-        <v>2.282424327599999</v>
+        <v>1.16937690732</v>
       </c>
       <c r="S16">
-        <v>0.0001053307210259336</v>
+        <v>1.701924899831574E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001053307210259336</v>
+        <v>1.701924899831574E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.617562</v>
+        <v>19.880183</v>
       </c>
       <c r="N17">
-        <v>13.852686</v>
+        <v>59.640549</v>
       </c>
       <c r="O17">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="P17">
-        <v>0.438425198465246</v>
+        <v>0.7181213497113423</v>
       </c>
       <c r="Q17">
-        <v>1.673712306266667</v>
+        <v>3.27506134742</v>
       </c>
       <c r="R17">
-        <v>15.0634107564</v>
+        <v>29.47555212678</v>
       </c>
       <c r="S17">
-        <v>0.0006951555400523571</v>
+        <v>0.0004289906512333982</v>
       </c>
       <c r="T17">
-        <v>0.0006951555400523573</v>
+        <v>0.0004289906512333982</v>
       </c>
     </row>
   </sheetData>
